--- a/wai_jigsaw/TableExporter/excel/data_cards.xlsx
+++ b/wai_jigsaw/TableExporter/excel/data_cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DG-2507-PC-061\WAIDev\WAIDev\wai_jigsaw\TableExporter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441073F-43B5-4B2F-923F-18695C7CCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F787DDCB-DAFB-4F68-9B31-B5C0DBAF9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_cardBackSprite</t>
+    <t>Card_Back_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dog Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Back_Dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Back_Diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,17 +502,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="8" width="28.28515625" customWidth="1"/>
   </cols>
@@ -548,6 +564,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wai_jigsaw/TableExporter/excel/data_cards.xlsx
+++ b/wai_jigsaw/TableExporter/excel/data_cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DG-2507-PC-061\WAIDev\WAIDev\wai_jigsaw\TableExporter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F787DDCB-DAFB-4F68-9B31-B5C0DBAF9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E73C7-9FC3-4D37-BF3A-B851FA2BEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>CardBackSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card_Back_Basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,7 +501,7 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -561,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
